--- a/pre/blog/es/3/3.xlsx
+++ b/pre/blog/es/3/3.xlsx
@@ -197,13 +197,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Al parecer, no es mucho tiempo, pero ya veo cambios notables en mi cuerpo. He perdido 3 kilos en 4 días y veo que esto pasó sin demasiados esfuerzos, mucho ejercicio ni dietas de hambre. Los primeros días era complicado rechazar mi comida favorita, pero luego poco a poco empecé a alimentarme bien. </t>
-    </r>
+    <t xml:space="preserve">Al parecer, no es mucho tiempo, pero ya veo cambios notables en mi cuerpo. He perdido 3 kilos en 4 días y veo que esto pasó sin demasiados esfuerzos, mucho ejercicio ni dietas de hambre.  Durante los primeros días, era complicado rechazar mi comida favorita, pero luego poco a poco empecé a alimentarme bien. </t>
   </si>
   <si>
     <r>
@@ -353,13 +347,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Adelgazaron mucho los brazos y las caderas.</t>
-    </r>
+    <t>adelgazaron mucho los brazos y las caderas.</t>
   </si>
   <si>
     <r>
@@ -821,13 +809,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">y comparte el resultado. </t>
-    </r>
+    <t xml:space="preserve">y comparta el resultado. </t>
   </si>
   <si>
     <r>
@@ -938,7 +920,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">¡Buenos días! Gracias por Su mensaje. Estamos contentos de que </t>
+    <t xml:space="preserve">¡Buenos días! Gracias por Su mensaje. ¡Estamos contentos de que </t>
   </si>
   <si>
     <r>
@@ -950,13 +932,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">le haya ayudado! </t>
-    </r>
+    <t>le haya ayudado!</t>
   </si>
   <si>
     <r>
@@ -1700,7 +1676,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1800,7 +1776,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2130,7 +2106,7 @@
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2230,7 +2206,7 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>118</v>
       </c>
     </row>
